--- a/model/model_inputs.xlsx
+++ b/model/model_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25FE10B6-E7B3-44F8-A720-DC9A46B50481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00F0DB0-E600-4049-9546-59D69E5C841A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10395" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,14 @@
     <sheet name="tech" sheetId="6" r:id="rId3"/>
     <sheet name="tariffs" sheetId="7" r:id="rId4"/>
     <sheet name="heat_rate" sheetId="8" r:id="rId5"/>
-    <sheet name="day_weights" sheetId="2" r:id="rId6"/>
-    <sheet name="elec_demand" sheetId="3" r:id="rId7"/>
-    <sheet name="cap_factors" sheetId="4" r:id="rId8"/>
+    <sheet name="capacity_steps" sheetId="13" r:id="rId6"/>
+    <sheet name="day_weights" sheetId="2" r:id="rId7"/>
+    <sheet name="hist_demand" sheetId="15" r:id="rId8"/>
+    <sheet name="cap_factors" sheetId="4" r:id="rId9"/>
+    <sheet name="elec_demand (1)" sheetId="3" r:id="rId10"/>
+    <sheet name="elec_demand (2)" sheetId="9" r:id="rId11"/>
+    <sheet name="generate_demandprofiles" sheetId="16" r:id="rId12"/>
+    <sheet name="ud_pros" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,8 +39,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>min SoC</t>
   </si>
@@ -67,18 +70,6 @@
   </si>
   <si>
     <t>Type 2</t>
-  </si>
-  <si>
-    <t>Type 3</t>
-  </si>
-  <si>
-    <t>Type 4</t>
-  </si>
-  <si>
-    <t>Type 5</t>
-  </si>
-  <si>
-    <t>No available</t>
   </si>
   <si>
     <t>Avg PV capacity</t>
@@ -108,13 +99,7 @@
     <t>Owned PV</t>
   </si>
   <si>
-    <t>Rented PV</t>
-  </si>
-  <si>
-    <t>Owned Batteries power capacity</t>
-  </si>
-  <si>
-    <t>Owned batteries energy capacity</t>
+    <t>Owned Batteries</t>
   </si>
   <si>
     <t>Diesel Price</t>
@@ -132,16 +117,46 @@
     <t>year 3</t>
   </si>
   <si>
-    <t>0%-25%</t>
+    <t>year 4</t>
   </si>
   <si>
-    <t>25%-50%</t>
+    <t>year 5</t>
   </si>
   <si>
-    <t>50%-75%</t>
+    <t>year 6</t>
   </si>
   <si>
-    <t>75%-100%</t>
+    <t>year 7</t>
+  </si>
+  <si>
+    <t>year 8</t>
+  </si>
+  <si>
+    <t>year 9</t>
+  </si>
+  <si>
+    <t>year 10</t>
+  </si>
+  <si>
+    <t>year 11</t>
+  </si>
+  <si>
+    <t>year 12</t>
+  </si>
+  <si>
+    <t>year 13</t>
+  </si>
+  <si>
+    <t>year 14</t>
+  </si>
+  <si>
+    <t>year 15</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>0%-25%</t>
   </si>
   <si>
     <t>Weight</t>
@@ -155,12 +170,102 @@
   <si>
     <t>Day 3</t>
   </si>
+  <si>
+    <t>day 1</t>
+  </si>
+  <si>
+    <t>day 2</t>
+  </si>
+  <si>
+    <t>day 3</t>
+  </si>
+  <si>
+    <t>PV Rent</t>
+  </si>
+  <si>
+    <t>Unmet demand penalty</t>
+  </si>
+  <si>
+    <t>Feed In Prosumers</t>
+  </si>
+  <si>
+    <t>Number Custumers</t>
+  </si>
+  <si>
+    <t>25%-100</t>
+  </si>
+  <si>
+    <t>demand_elasticity</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>No Cooling</t>
+  </si>
+  <si>
+    <t>Summe Haushalte</t>
+  </si>
+  <si>
+    <t>Avarage</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Spring/Autum</t>
+  </si>
+  <si>
+    <t>pros</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +273,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,11 +330,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -208,82 +361,3905 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBA0B0F-F6DC-C126-E860-E67BCDAAA3A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1670050" y="1727200"/>
-          <a:ext cx="3971925" cy="1279525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Day 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Clustering?</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'elec_demand (1)'!$B$2:$Y$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-057D-422A-9B0F-1C7A4F579CE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164066111"/>
+        <c:axId val="164066527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="164066111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164066527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164066527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164066111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Day 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8928258967629044E-2"/>
+          <c:y val="0.16245370370370371"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'elec_demand (1)'!$B$3:$Y$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.92499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79C3-4308-BBD4-381C4DAEB75F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2132628863"/>
+        <c:axId val="2132632607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2132628863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132632607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132632607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132628863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Day 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'elec_demand (1)'!$B$4:$Y$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79EA-4E97-B058-138C8EC5824A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164066111"/>
+        <c:axId val="164066527"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="164066111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164066527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164066527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164066111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>generate_demandprofiles!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>generate_demandprofiles!$B$42:$Y$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76DD-4A02-876B-351429418E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>generate_demandprofiles!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spring/Autum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>generate_demandprofiles!$B$43:$Y$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.92499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77499999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76DD-4A02-876B-351429418E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>generate_demandprofiles!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>generate_demandprofiles!$B$44:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76DD-4A02-876B-351429418E73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="756326671"/>
+        <c:axId val="756348719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="756326671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756348719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="756348719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756326671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -452,170 +4428,157 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122FBC7A-822A-4054-B853-F86505FC4C38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E173C4A0-0321-4C1A-ADA7-0957CC54BD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1C5666-AF64-430C-9A5A-E4B01D5FBC66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589071</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>286242</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135977</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5028515F-8529-49CC-9CBF-70295A99FE47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E81964-8ECC-4160-BFB6-2780450E2BB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="942975"/>
-          <a:ext cx="3971925" cy="1323975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Clustering?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -938,21 +4901,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,25 +4935,37 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.11</v>
       </c>
-      <c r="C2">
-        <v>0.99</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
         <v>24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-0.12130000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -997,119 +4973,3331 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABED9F3-A079-4BB6-8141-C898B88CBE8C}">
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="25" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <f>generate_demandprofiles!B42</f>
+        <v>1.4</v>
+      </c>
+      <c r="C2">
+        <f>generate_demandprofiles!C42</f>
+        <v>1.28</v>
+      </c>
+      <c r="D2">
+        <f>generate_demandprofiles!D42</f>
+        <v>1.23</v>
+      </c>
+      <c r="E2">
+        <f>generate_demandprofiles!E42</f>
+        <v>1.18</v>
+      </c>
+      <c r="F2">
+        <f>generate_demandprofiles!F42</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <f>generate_demandprofiles!G42</f>
+        <v>1.08</v>
+      </c>
+      <c r="H2">
+        <f>generate_demandprofiles!H42</f>
+        <v>1.08</v>
+      </c>
+      <c r="I2">
+        <f>generate_demandprofiles!I42</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J2">
+        <f>generate_demandprofiles!J42</f>
+        <v>1.04</v>
+      </c>
+      <c r="K2">
+        <f>generate_demandprofiles!K42</f>
+        <v>1.05</v>
+      </c>
+      <c r="L2">
+        <f>generate_demandprofiles!L42</f>
+        <v>1.07</v>
+      </c>
+      <c r="M2">
+        <f>generate_demandprofiles!M42</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N2">
+        <f>generate_demandprofiles!N42</f>
+        <v>1.2</v>
+      </c>
+      <c r="O2">
+        <f>generate_demandprofiles!O42</f>
+        <v>1.24</v>
+      </c>
+      <c r="P2">
+        <f>generate_demandprofiles!P42</f>
+        <v>1.37</v>
+      </c>
+      <c r="Q2">
+        <f>generate_demandprofiles!Q42</f>
+        <v>1.36</v>
+      </c>
+      <c r="R2">
+        <f>generate_demandprofiles!R42</f>
+        <v>1.27</v>
+      </c>
+      <c r="S2">
+        <f>generate_demandprofiles!S42</f>
+        <v>1.25</v>
+      </c>
+      <c r="T2">
+        <f>generate_demandprofiles!T42</f>
+        <v>1.27</v>
+      </c>
+      <c r="U2">
+        <f>generate_demandprofiles!U42</f>
+        <v>1.38</v>
+      </c>
+      <c r="V2">
+        <f>generate_demandprofiles!V42</f>
+        <v>1.46</v>
+      </c>
+      <c r="W2">
+        <f>generate_demandprofiles!W42</f>
+        <v>1.48</v>
+      </c>
+      <c r="X2">
+        <f>generate_demandprofiles!X42</f>
+        <v>1.53</v>
+      </c>
+      <c r="Y2">
+        <f>generate_demandprofiles!Y42</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <f>generate_demandprofiles!B43</f>
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="C3">
+        <f>generate_demandprofiles!C43</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D3">
+        <f>generate_demandprofiles!D43</f>
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <f>generate_demandprofiles!E43</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="F3">
+        <f>generate_demandprofiles!F43</f>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="G3">
+        <f>generate_demandprofiles!G43</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H3">
+        <f>generate_demandprofiles!H43</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I3">
+        <f>generate_demandprofiles!I43</f>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J3">
+        <f>generate_demandprofiles!J43</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K3">
+        <f>generate_demandprofiles!K43</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L3">
+        <f>generate_demandprofiles!L43</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="M3">
+        <f>generate_demandprofiles!M43</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N3">
+        <f>generate_demandprofiles!N43</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O3">
+        <f>generate_demandprofiles!O43</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="P3">
+        <f>generate_demandprofiles!P43</f>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="Q3">
+        <f>generate_demandprofiles!Q43</f>
+        <v>0.95500000000000007</v>
+      </c>
+      <c r="R3">
+        <f>generate_demandprofiles!R43</f>
+        <v>0.91</v>
+      </c>
+      <c r="S3">
+        <f>generate_demandprofiles!S43</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="T3">
+        <f>generate_demandprofiles!T43</f>
+        <v>0.97</v>
+      </c>
+      <c r="U3">
+        <f>generate_demandprofiles!U43</f>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="V3">
+        <f>generate_demandprofiles!V43</f>
+        <v>1.06</v>
+      </c>
+      <c r="W3">
+        <f>generate_demandprofiles!W43</f>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="X3">
+        <f>generate_demandprofiles!X43</f>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="Y3">
+        <f>generate_demandprofiles!Y43</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <f>generate_demandprofiles!B44</f>
+        <v>0.45</v>
+      </c>
+      <c r="C4">
+        <f>generate_demandprofiles!C44</f>
+        <v>0.43</v>
+      </c>
+      <c r="D4">
+        <f>generate_demandprofiles!D44</f>
+        <v>0.37</v>
+      </c>
+      <c r="E4">
+        <f>generate_demandprofiles!E44</f>
+        <v>0.37</v>
+      </c>
+      <c r="F4">
+        <f>generate_demandprofiles!F44</f>
+        <v>0.37</v>
+      </c>
+      <c r="G4">
+        <f>generate_demandprofiles!G44</f>
+        <v>0.47</v>
+      </c>
+      <c r="H4">
+        <f>generate_demandprofiles!H44</f>
+        <v>0.53</v>
+      </c>
+      <c r="I4">
+        <f>generate_demandprofiles!I44</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J4">
+        <f>generate_demandprofiles!J44</f>
+        <v>0.53</v>
+      </c>
+      <c r="K4">
+        <f>generate_demandprofiles!K44</f>
+        <v>0.54</v>
+      </c>
+      <c r="L4">
+        <f>generate_demandprofiles!L44</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M4">
+        <f>generate_demandprofiles!M44</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N4">
+        <f>generate_demandprofiles!N44</f>
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <f>generate_demandprofiles!O44</f>
+        <v>0.6</v>
+      </c>
+      <c r="P4">
+        <f>generate_demandprofiles!P44</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q4">
+        <f>generate_demandprofiles!Q44</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R4">
+        <f>generate_demandprofiles!R44</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S4">
+        <f>generate_demandprofiles!S44</f>
+        <v>0.61</v>
+      </c>
+      <c r="T4">
+        <f>generate_demandprofiles!T44</f>
+        <v>0.67</v>
+      </c>
+      <c r="U4">
+        <f>generate_demandprofiles!U44</f>
+        <v>0.73</v>
+      </c>
+      <c r="V4">
+        <f>generate_demandprofiles!V44</f>
+        <v>0.66</v>
+      </c>
+      <c r="W4">
+        <f>generate_demandprofiles!W44</f>
+        <v>0.63</v>
+      </c>
+      <c r="X4">
+        <f>generate_demandprofiles!X44</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y4">
+        <f>generate_demandprofiles!Y44</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867F374D-6AFF-43B6-B370-B2ECC1DAC459}">
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="25" width="6.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <f>generate_demandprofiles!B42</f>
+        <v>1.4</v>
+      </c>
+      <c r="C2">
+        <f>generate_demandprofiles!C42</f>
+        <v>1.28</v>
+      </c>
+      <c r="D2">
+        <f>generate_demandprofiles!D42</f>
+        <v>1.23</v>
+      </c>
+      <c r="E2">
+        <f>generate_demandprofiles!E42</f>
+        <v>1.18</v>
+      </c>
+      <c r="F2">
+        <f>generate_demandprofiles!F42</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G2">
+        <f>generate_demandprofiles!G42</f>
+        <v>1.08</v>
+      </c>
+      <c r="H2">
+        <f>generate_demandprofiles!H42</f>
+        <v>1.08</v>
+      </c>
+      <c r="I2">
+        <f>generate_demandprofiles!I42</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J2">
+        <f>generate_demandprofiles!J42</f>
+        <v>1.04</v>
+      </c>
+      <c r="K2">
+        <f>generate_demandprofiles!K42</f>
+        <v>1.05</v>
+      </c>
+      <c r="L2">
+        <f>generate_demandprofiles!L42</f>
+        <v>1.07</v>
+      </c>
+      <c r="M2">
+        <f>generate_demandprofiles!M42</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N2">
+        <f>generate_demandprofiles!N42</f>
+        <v>1.2</v>
+      </c>
+      <c r="O2">
+        <f>generate_demandprofiles!O42</f>
+        <v>1.24</v>
+      </c>
+      <c r="P2">
+        <f>generate_demandprofiles!P42</f>
+        <v>1.37</v>
+      </c>
+      <c r="Q2">
+        <f>generate_demandprofiles!Q42</f>
+        <v>1.36</v>
+      </c>
+      <c r="R2">
+        <f>generate_demandprofiles!R42</f>
+        <v>1.27</v>
+      </c>
+      <c r="S2">
+        <f>generate_demandprofiles!S42</f>
+        <v>1.25</v>
+      </c>
+      <c r="T2">
+        <f>generate_demandprofiles!T42</f>
+        <v>1.27</v>
+      </c>
+      <c r="U2">
+        <f>generate_demandprofiles!U42</f>
+        <v>1.38</v>
+      </c>
+      <c r="V2">
+        <f>generate_demandprofiles!V42</f>
+        <v>1.46</v>
+      </c>
+      <c r="W2">
+        <f>generate_demandprofiles!W42</f>
+        <v>1.48</v>
+      </c>
+      <c r="X2">
+        <f>generate_demandprofiles!X42</f>
+        <v>1.53</v>
+      </c>
+      <c r="Y2">
+        <f>generate_demandprofiles!Y42</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <f>generate_demandprofiles!B43</f>
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="C3">
+        <f>generate_demandprofiles!C43</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D3">
+        <f>generate_demandprofiles!D43</f>
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <f>generate_demandprofiles!E43</f>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="F3">
+        <f>generate_demandprofiles!F43</f>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="G3">
+        <f>generate_demandprofiles!G43</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H3">
+        <f>generate_demandprofiles!H43</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I3">
+        <f>generate_demandprofiles!I43</f>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J3">
+        <f>generate_demandprofiles!J43</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K3">
+        <f>generate_demandprofiles!K43</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L3">
+        <f>generate_demandprofiles!L43</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="M3">
+        <f>generate_demandprofiles!M43</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N3">
+        <f>generate_demandprofiles!N43</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O3">
+        <f>generate_demandprofiles!O43</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="P3">
+        <f>generate_demandprofiles!P43</f>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="Q3">
+        <f>generate_demandprofiles!Q43</f>
+        <v>0.95500000000000007</v>
+      </c>
+      <c r="R3">
+        <f>generate_demandprofiles!R43</f>
+        <v>0.91</v>
+      </c>
+      <c r="S3">
+        <f>generate_demandprofiles!S43</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="T3">
+        <f>generate_demandprofiles!T43</f>
+        <v>0.97</v>
+      </c>
+      <c r="U3">
+        <f>generate_demandprofiles!U43</f>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="V3">
+        <f>generate_demandprofiles!V43</f>
+        <v>1.06</v>
+      </c>
+      <c r="W3">
+        <f>generate_demandprofiles!W43</f>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="X3">
+        <f>generate_demandprofiles!X43</f>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="Y3">
+        <f>generate_demandprofiles!Y43</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <f>generate_demandprofiles!B44</f>
+        <v>0.45</v>
+      </c>
+      <c r="C4">
+        <f>generate_demandprofiles!C44</f>
+        <v>0.43</v>
+      </c>
+      <c r="D4">
+        <f>generate_demandprofiles!D44</f>
+        <v>0.37</v>
+      </c>
+      <c r="E4">
+        <f>generate_demandprofiles!E44</f>
+        <v>0.37</v>
+      </c>
+      <c r="F4">
+        <f>generate_demandprofiles!F44</f>
+        <v>0.37</v>
+      </c>
+      <c r="G4">
+        <f>generate_demandprofiles!G44</f>
+        <v>0.47</v>
+      </c>
+      <c r="H4">
+        <f>generate_demandprofiles!H44</f>
+        <v>0.53</v>
+      </c>
+      <c r="I4">
+        <f>generate_demandprofiles!I44</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J4">
+        <f>generate_demandprofiles!J44</f>
+        <v>0.53</v>
+      </c>
+      <c r="K4">
+        <f>generate_demandprofiles!K44</f>
+        <v>0.54</v>
+      </c>
+      <c r="L4">
+        <f>generate_demandprofiles!L44</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M4">
+        <f>generate_demandprofiles!M44</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N4">
+        <f>generate_demandprofiles!N44</f>
+        <v>0.6</v>
+      </c>
+      <c r="O4">
+        <f>generate_demandprofiles!O44</f>
+        <v>0.6</v>
+      </c>
+      <c r="P4">
+        <f>generate_demandprofiles!P44</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q4">
+        <f>generate_demandprofiles!Q44</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R4">
+        <f>generate_demandprofiles!R44</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S4">
+        <f>generate_demandprofiles!S44</f>
+        <v>0.61</v>
+      </c>
+      <c r="T4">
+        <f>generate_demandprofiles!T44</f>
+        <v>0.67</v>
+      </c>
+      <c r="U4">
+        <f>generate_demandprofiles!U44</f>
+        <v>0.73</v>
+      </c>
+      <c r="V4">
+        <f>generate_demandprofiles!V44</f>
+        <v>0.66</v>
+      </c>
+      <c r="W4">
+        <f>generate_demandprofiles!W44</f>
+        <v>0.63</v>
+      </c>
+      <c r="X4">
+        <f>generate_demandprofiles!X44</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y4">
+        <f>generate_demandprofiles!Y44</f>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58434418-C6E9-45C3-B202-DF8BDC58F743}">
+  <dimension ref="A1:Y44"/>
+  <sheetViews>
+    <sheetView topLeftCell="F8" zoomScale="106" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>16</v>
+      </c>
+      <c r="S6">
+        <v>17</v>
+      </c>
+      <c r="T6">
+        <v>18</v>
+      </c>
+      <c r="U6">
+        <v>19</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <v>21</v>
+      </c>
+      <c r="X6">
+        <v>22</v>
+      </c>
+      <c r="Y6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2.75</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>2.25</v>
+      </c>
+      <c r="F7">
+        <v>2.25</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1.75</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="J7">
+        <v>1.25</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1.25</v>
+      </c>
+      <c r="O7">
+        <v>1.25</v>
+      </c>
+      <c r="P7">
+        <v>1.5</v>
+      </c>
+      <c r="Q7">
+        <v>1.5</v>
+      </c>
+      <c r="R7">
+        <v>1.5</v>
+      </c>
+      <c r="S7">
+        <v>1.25</v>
+      </c>
+      <c r="T7">
+        <v>1.25</v>
+      </c>
+      <c r="U7">
+        <v>1.5</v>
+      </c>
+      <c r="V7">
+        <v>1.75</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>2.25</v>
+      </c>
+      <c r="Y7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.75</v>
+      </c>
+      <c r="G8">
+        <v>0.75</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <v>0.75</v>
+      </c>
+      <c r="L8">
+        <v>0.75</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1.25</v>
+      </c>
+      <c r="Q8">
+        <v>1.25</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1.25</v>
+      </c>
+      <c r="V8">
+        <v>1.25</v>
+      </c>
+      <c r="W8">
+        <v>1.25</v>
+      </c>
+      <c r="X8">
+        <v>1.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2.75</v>
+      </c>
+      <c r="E9">
+        <v>2.6</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>2.4</v>
+      </c>
+      <c r="H9">
+        <v>2.4</v>
+      </c>
+      <c r="I9">
+        <v>2.25</v>
+      </c>
+      <c r="J9">
+        <v>2.25</v>
+      </c>
+      <c r="K9">
+        <v>2.4</v>
+      </c>
+      <c r="L9">
+        <v>2.5</v>
+      </c>
+      <c r="M9">
+        <v>2.5</v>
+      </c>
+      <c r="N9">
+        <v>2.75</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>3.25</v>
+      </c>
+      <c r="Q9">
+        <v>3.25</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>2.8</v>
+      </c>
+      <c r="T9">
+        <v>2.75</v>
+      </c>
+      <c r="U9">
+        <v>2.75</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>3.25</v>
+      </c>
+      <c r="X9">
+        <v>3.3</v>
+      </c>
+      <c r="Y9">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+      <c r="Q13">
+        <v>15</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>18</v>
+      </c>
+      <c r="U13">
+        <v>19</v>
+      </c>
+      <c r="V13">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>21</v>
+      </c>
+      <c r="X13">
+        <v>22</v>
+      </c>
+      <c r="Y13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.75</v>
+      </c>
+      <c r="H14">
+        <v>0.75</v>
+      </c>
+      <c r="I14">
+        <v>0.75</v>
+      </c>
+      <c r="J14">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+      <c r="O14">
+        <v>0.5</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>0.5</v>
+      </c>
+      <c r="R14">
+        <v>0.5</v>
+      </c>
+      <c r="S14">
+        <v>0.5</v>
+      </c>
+      <c r="T14">
+        <v>0.75</v>
+      </c>
+      <c r="U14">
+        <v>0.75</v>
+      </c>
+      <c r="V14">
+        <v>0.75</v>
+      </c>
+      <c r="W14">
+        <v>0.75</v>
+      </c>
+      <c r="X14">
+        <v>0.75</v>
+      </c>
+      <c r="Y14">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.25</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+      <c r="F15">
+        <v>0.25</v>
+      </c>
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>0.25</v>
+      </c>
+      <c r="K15">
+        <v>0.25</v>
+      </c>
+      <c r="L15">
+        <v>0.25</v>
+      </c>
+      <c r="M15">
+        <v>0.25</v>
+      </c>
+      <c r="N15">
+        <v>0.25</v>
+      </c>
+      <c r="O15">
+        <v>0.25</v>
+      </c>
+      <c r="P15">
+        <v>0.25</v>
+      </c>
+      <c r="Q15">
+        <v>0.25</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+      <c r="S15">
+        <v>0.5</v>
+      </c>
+      <c r="T15">
+        <v>0.5</v>
+      </c>
+      <c r="U15">
+        <v>0.5</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <v>0.5</v>
+      </c>
+      <c r="X15">
+        <v>0.5</v>
+      </c>
+      <c r="Y15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.75</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.75</v>
+      </c>
+      <c r="H16">
+        <v>0.75</v>
+      </c>
+      <c r="I16">
+        <v>0.75</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="L16">
+        <v>0.6</v>
+      </c>
+      <c r="M16">
+        <v>0.6</v>
+      </c>
+      <c r="N16">
+        <v>0.75</v>
+      </c>
+      <c r="O16">
+        <v>0.75</v>
+      </c>
+      <c r="P16">
+        <v>0.75</v>
+      </c>
+      <c r="Q16">
+        <v>0.75</v>
+      </c>
+      <c r="R16">
+        <v>0.75</v>
+      </c>
+      <c r="S16">
+        <v>0.75</v>
+      </c>
+      <c r="T16">
+        <v>0.75</v>
+      </c>
+      <c r="U16">
+        <v>0.85</v>
+      </c>
+      <c r="V16">
+        <v>0.85</v>
+      </c>
+      <c r="W16">
+        <v>0.85</v>
+      </c>
+      <c r="X16">
+        <v>0.85</v>
+      </c>
+      <c r="Y16">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+      <c r="Q23">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>16</v>
+      </c>
+      <c r="S23">
+        <v>17</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23">
+        <v>19</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23">
+        <v>22</v>
+      </c>
+      <c r="Y23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.75</v>
+      </c>
+      <c r="C24">
+        <v>0.65</v>
+      </c>
+      <c r="D24">
+        <v>0.6</v>
+      </c>
+      <c r="E24">
+        <v>0.6</v>
+      </c>
+      <c r="F24">
+        <v>0.6</v>
+      </c>
+      <c r="G24">
+        <v>0.65</v>
+      </c>
+      <c r="H24">
+        <v>0.7</v>
+      </c>
+      <c r="I24">
+        <v>0.75</v>
+      </c>
+      <c r="J24">
+        <v>0.75</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>0.75</v>
+      </c>
+      <c r="M24">
+        <v>0.75</v>
+      </c>
+      <c r="N24">
+        <v>0.75</v>
+      </c>
+      <c r="O24">
+        <v>0.75</v>
+      </c>
+      <c r="P24">
+        <v>0.75</v>
+      </c>
+      <c r="Q24">
+        <v>0.75</v>
+      </c>
+      <c r="R24">
+        <v>0.8</v>
+      </c>
+      <c r="S24">
+        <v>0.85</v>
+      </c>
+      <c r="T24">
+        <v>0.9</v>
+      </c>
+      <c r="U24">
+        <v>0.95</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0.9</v>
+      </c>
+      <c r="X24">
+        <v>0.8</v>
+      </c>
+      <c r="Y24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>0.35</v>
+      </c>
+      <c r="C25">
+        <v>0.35</v>
+      </c>
+      <c r="D25">
+        <v>0.35</v>
+      </c>
+      <c r="E25">
+        <v>0.35</v>
+      </c>
+      <c r="F25">
+        <v>0.35</v>
+      </c>
+      <c r="G25">
+        <v>0.35</v>
+      </c>
+      <c r="H25">
+        <v>0.4</v>
+      </c>
+      <c r="I25">
+        <v>0.4</v>
+      </c>
+      <c r="J25">
+        <v>0.4</v>
+      </c>
+      <c r="K25">
+        <v>0.4</v>
+      </c>
+      <c r="L25">
+        <v>0.4</v>
+      </c>
+      <c r="M25">
+        <v>0.4</v>
+      </c>
+      <c r="N25">
+        <v>0.4</v>
+      </c>
+      <c r="O25">
+        <v>0.4</v>
+      </c>
+      <c r="P25">
+        <v>0.4</v>
+      </c>
+      <c r="Q25">
+        <v>0.4</v>
+      </c>
+      <c r="R25">
+        <v>0.4</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.9</v>
+      </c>
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26">
+        <v>0.9</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I26">
+        <v>1.2</v>
+      </c>
+      <c r="J26">
+        <v>1.25</v>
+      </c>
+      <c r="K26">
+        <v>1.3</v>
+      </c>
+      <c r="L26">
+        <v>1.4</v>
+      </c>
+      <c r="M26">
+        <v>1.5</v>
+      </c>
+      <c r="N26">
+        <v>1.4</v>
+      </c>
+      <c r="O26">
+        <v>1.35</v>
+      </c>
+      <c r="P26">
+        <v>1.3</v>
+      </c>
+      <c r="Q26">
+        <v>1.25</v>
+      </c>
+      <c r="R26">
+        <v>1.25</v>
+      </c>
+      <c r="S26">
+        <v>1.4</v>
+      </c>
+      <c r="T26">
+        <v>1.6</v>
+      </c>
+      <c r="U26">
+        <v>1.8</v>
+      </c>
+      <c r="V26">
+        <v>1.75</v>
+      </c>
+      <c r="W26">
+        <v>1.5</v>
+      </c>
+      <c r="X26">
+        <v>1.25</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <v>11</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>14</v>
+      </c>
+      <c r="Q29">
+        <v>15</v>
+      </c>
+      <c r="R29">
+        <v>16</v>
+      </c>
+      <c r="S29">
+        <v>17</v>
+      </c>
+      <c r="T29">
+        <v>18</v>
+      </c>
+      <c r="U29">
+        <v>19</v>
+      </c>
+      <c r="V29">
+        <v>20</v>
+      </c>
+      <c r="W29">
+        <v>21</v>
+      </c>
+      <c r="X29">
+        <v>22</v>
+      </c>
+      <c r="Y29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.35</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <v>0.3</v>
+      </c>
+      <c r="E30">
+        <v>0.3</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30">
+        <v>0.35</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>0.6</v>
+      </c>
+      <c r="J30">
+        <v>0.65</v>
+      </c>
+      <c r="K30">
+        <v>0.7</v>
+      </c>
+      <c r="L30">
+        <v>0.75</v>
+      </c>
+      <c r="M30">
+        <v>0.75</v>
+      </c>
+      <c r="N30">
+        <v>0.75</v>
+      </c>
+      <c r="O30">
+        <v>0.7</v>
+      </c>
+      <c r="P30">
+        <v>0.65</v>
+      </c>
+      <c r="Q30">
+        <v>0.6</v>
+      </c>
+      <c r="R30">
+        <v>0.6</v>
+      </c>
+      <c r="S30">
+        <v>0.75</v>
+      </c>
+      <c r="T30">
+        <v>0.8</v>
+      </c>
+      <c r="U30">
+        <v>0.9</v>
+      </c>
+      <c r="V30">
+        <v>0.75</v>
+      </c>
+      <c r="W30">
+        <v>0.7</v>
+      </c>
+      <c r="X30">
+        <v>0.6</v>
+      </c>
+      <c r="Y30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>0.25</v>
+      </c>
+      <c r="D31">
+        <v>0.25</v>
+      </c>
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+      <c r="F31">
+        <v>0.35</v>
+      </c>
+      <c r="G31">
+        <v>0.4</v>
+      </c>
+      <c r="H31">
+        <v>0.4</v>
+      </c>
+      <c r="I31">
+        <v>0.4</v>
+      </c>
+      <c r="J31">
+        <v>0.35</v>
+      </c>
+      <c r="K31">
+        <v>0.35</v>
+      </c>
+      <c r="L31">
+        <v>0.35</v>
+      </c>
+      <c r="M31">
+        <v>0.35</v>
+      </c>
+      <c r="N31">
+        <v>0.35</v>
+      </c>
+      <c r="O31">
+        <v>0.35</v>
+      </c>
+      <c r="P31">
+        <v>0.35</v>
+      </c>
+      <c r="Q31">
+        <v>0.35</v>
+      </c>
+      <c r="R31">
+        <v>0.4</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>0.4</v>
+      </c>
+      <c r="W31">
+        <v>0.4</v>
+      </c>
+      <c r="X31">
+        <v>0.35</v>
+      </c>
+      <c r="Y31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0.8</v>
+      </c>
+      <c r="C32">
+        <v>0.75</v>
+      </c>
+      <c r="D32">
+        <v>0.75</v>
+      </c>
+      <c r="E32">
+        <v>0.75</v>
+      </c>
+      <c r="F32">
+        <v>0.6</v>
+      </c>
+      <c r="G32">
+        <v>0.75</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1.2</v>
+      </c>
+      <c r="J32">
+        <v>1.3</v>
+      </c>
+      <c r="K32">
+        <v>1.35</v>
+      </c>
+      <c r="L32">
+        <v>1.5</v>
+      </c>
+      <c r="M32">
+        <v>1.6</v>
+      </c>
+      <c r="N32">
+        <v>1.6</v>
+      </c>
+      <c r="O32">
+        <v>1.65</v>
+      </c>
+      <c r="P32">
+        <v>1.6</v>
+      </c>
+      <c r="Q32">
+        <v>1.35</v>
+      </c>
+      <c r="R32">
+        <v>1.25</v>
+      </c>
+      <c r="S32">
+        <v>1.4</v>
+      </c>
+      <c r="T32">
+        <v>1.75</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1.75</v>
+      </c>
+      <c r="W32">
+        <v>1.5</v>
+      </c>
+      <c r="X32">
+        <v>1.25</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35">
+        <f>D2+D3+D4+D19+D20+D21</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37">
+        <f>(B7*$D2+B8*$D3+B9*$D4+B25*$D20+$D19*B24+$D21*B26)/$A35</f>
+        <v>1.3978260869565218</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:Y37" si="0">(C7*$D2+C8*$D3+C9*$D4+C25*$D20+$D19*C24+$D21*C26)/$A35</f>
+        <v>1.2804347826086957</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1.2260869565217392</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.1782608695652175</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.0956521739130434</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>1.076086956521739</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1.0826086956521739</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>1.1195652173913044</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>1.0369565217391303</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>1.0456521739130435</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>1.0717391304347825</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1.1456521739130434</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>1.2021739130434783</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>1.241304347826087</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>1.3673913043478261</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="0"/>
+        <v>1.3630434782608696</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="0"/>
+        <v>1.2652173913043478</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>1.2695652173913043</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>1.3847826086956523</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="0"/>
+        <v>1.4565217391304348</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="0"/>
+        <v>1.4782608695652173</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="0"/>
+        <v>1.5304347826086957</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>1.5021739130434784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <f>(B14*$D2+$B15*$D3+B16*$D4+B31*$D20+$D19*B30+$D21*B32)/$A35</f>
+        <v>0.45</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:Y38" si="1">(C14*$D2+$B15*$D3+C16*$D4+C31*$D20+$D19*C30+$D21*C32)/$A35</f>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.36956521739130432</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0.36956521739130432</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0.37391304347826088</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0.47173913043478261</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.52608695652173909</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0.52826086956521734</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0.56739130434782614</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0.57608695652173914</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="1"/>
+        <v>0.60217391304347823</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0.59565217391304348</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0.58043478260869563</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>0.54782608695652169</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="1"/>
+        <v>0.54782608695652169</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="1"/>
+        <v>0.61086956521739133</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>0.67391304347826086</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>0.73478260869565215</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="1"/>
+        <v>0.66304347826086951</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>0.63043478260869568</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>0.57826086956521738</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="1"/>
+        <v>0.5173913043478261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <v>12</v>
+      </c>
+      <c r="O41">
+        <v>13</v>
+      </c>
+      <c r="P41">
+        <v>14</v>
+      </c>
+      <c r="Q41">
+        <v>15</v>
+      </c>
+      <c r="R41">
+        <v>16</v>
+      </c>
+      <c r="S41">
+        <v>17</v>
+      </c>
+      <c r="T41">
+        <v>18</v>
+      </c>
+      <c r="U41">
+        <v>19</v>
+      </c>
+      <c r="V41">
+        <v>20</v>
+      </c>
+      <c r="W41">
+        <v>21</v>
+      </c>
+      <c r="X41">
+        <v>22</v>
+      </c>
+      <c r="Y41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <f>ROUND(B37,2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:Y42" si="2">ROUND(C37,2)</f>
+        <v>1.28</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>1.23</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>1.18</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>1.04</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>1.07</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>1.37</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>1.27</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>1.27</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="2"/>
+        <v>1.38</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>1.46</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>1.48</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>1.53</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43">
+        <f>(B42+B44)/2</f>
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:Y43" si="3">(C42+C44)/2</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>0.97500000000000009</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>0.95500000000000007</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>0.91</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="3"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="3"/>
+        <v>0.97</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="3"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="3"/>
+        <v>1.06</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="3"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="3"/>
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="3"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:Y44" si="4">ROUND(B38,2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>0.43</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>0.37</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>0.37</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>0.37</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0.47</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>0.53</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0.53</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>0.61</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="4"/>
+        <v>0.67</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0.73</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="4"/>
+        <v>0.66</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="4"/>
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DD8A37-BD53-4C38-A6DB-35E6E7224D91}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>1.0496815286624204</v>
+      </c>
+      <c r="C2">
+        <v>0.70038216560509547</v>
+      </c>
+      <c r="D2">
+        <v>0.55484076433121021</v>
+      </c>
+      <c r="E2">
+        <v>0.40929936305732489</v>
+      </c>
+      <c r="F2">
+        <v>0.17643312101910827</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.99146496815286589</v>
+      </c>
+      <c r="V2">
+        <v>1.2243312101910828</v>
+      </c>
+      <c r="W2">
+        <v>1.282547770700637</v>
+      </c>
+      <c r="X2">
+        <v>1.4280891719745223</v>
+      </c>
+      <c r="Y2">
+        <v>1.3407643312101911</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E688FB98-37F3-4971-B4CD-1E6A7262204F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1">
+        <v>600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>550</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254CDF95-CF95-4796-ABE1-012E5312AEC2}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>800</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <v>430</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
         <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>350</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1119,79 +8307,282 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC45D110-F0D2-4F9D-B0C4-13B38005F879}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B7" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B8" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B9" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.151</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.159</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C056C09-E6BA-453E-9B68-3059E2926BDF}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -1200,33 +8591,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDB5C9E-DDE6-4406-A1BA-E0B87BADDE72}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB9A018-F4D8-4049-8785-D914448B1EBA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="1">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1235,31 +8678,475 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABED9F3-A079-4BB6-8141-C898B88CBE8C}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243AAE38-9D6F-4012-8878-02E57E613A97}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>110314</v>
+      </c>
+      <c r="C2">
+        <v>0.37</v>
+      </c>
+      <c r="G2" t="e">
+        <f xml:space="preserve"> SUM('elec_demand (1)'!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> SUM('elec_demand (2)'!$B2:$Y2)</f>
+        <v>30.09</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> SUM('elec_demand (2)'!$B2:$Y2)</f>
+        <v>30.09</v>
+      </c>
+      <c r="J2" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K2" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>101450</v>
+      </c>
+      <c r="C3">
+        <v>0.37</v>
+      </c>
+      <c r="G3">
+        <f xml:space="preserve"> SUM('elec_demand (1)'!B3:Y3)</f>
+        <v>21.574999999999999</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> SUM('elec_demand (2)'!$B3:$Y3)</f>
+        <v>21.574999999999999</v>
+      </c>
+      <c r="I3">
+        <f xml:space="preserve"> SUM('elec_demand (2)'!$B3:$Y3)</f>
+        <v>21.574999999999999</v>
+      </c>
+      <c r="J3" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K3" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L3" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>126000</v>
+      </c>
+      <c r="C4">
+        <v>0.37</v>
+      </c>
+      <c r="G4">
+        <f xml:space="preserve"> SUM('elec_demand (1)'!B4:Y4)</f>
+        <v>13.06</v>
+      </c>
+      <c r="H4">
+        <f xml:space="preserve"> SUM('elec_demand (2)'!$B4:$Y4)</f>
+        <v>13.06</v>
+      </c>
+      <c r="I4">
+        <f xml:space="preserve"> SUM('elec_demand (2)'!$B4:$Y4)</f>
+        <v>13.06</v>
+      </c>
+      <c r="J4" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K4" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L4" t="e">
+        <f xml:space="preserve"> SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE7DE72-C341-45B3-B73B-C7F84D832AAF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>0.15</v>
+      </c>
+      <c r="I2">
+        <v>0.34</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.62</v>
+      </c>
+      <c r="L2">
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>0.73</v>
+      </c>
+      <c r="N2">
+        <v>0.71</v>
+      </c>
+      <c r="O2">
+        <v>0.65</v>
+      </c>
+      <c r="P2">
+        <v>0.54</v>
+      </c>
+      <c r="Q2">
+        <v>0.39</v>
+      </c>
+      <c r="R2">
+        <v>0.21</v>
+      </c>
+      <c r="S2">
+        <v>0.05</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.01</v>
+      </c>
+      <c r="H3">
+        <v>0.09</v>
+      </c>
+      <c r="I3">
+        <v>0.26</v>
+      </c>
+      <c r="J3">
+        <v>0.43</v>
+      </c>
+      <c r="K3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.64</v>
+      </c>
+      <c r="M3">
+        <v>0.67</v>
+      </c>
+      <c r="N3">
+        <v>0.65</v>
+      </c>
+      <c r="O3">
+        <v>0.59</v>
+      </c>
+      <c r="P3">
+        <v>0.48</v>
+      </c>
+      <c r="Q3">
+        <v>0.32</v>
+      </c>
+      <c r="R3">
+        <v>0.13</v>
+      </c>
+      <c r="S3">
+        <v>0.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.03</v>
+      </c>
+      <c r="H4">
+        <v>0.17</v>
+      </c>
+      <c r="I4">
+        <v>0.35</v>
+      </c>
+      <c r="J4">
+        <v>0.49</v>
+      </c>
+      <c r="K4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.59</v>
+      </c>
+      <c r="M4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N4">
+        <v>0.49</v>
+      </c>
+      <c r="O4">
+        <v>0.38</v>
+      </c>
+      <c r="P4">
+        <v>0.23</v>
+      </c>
+      <c r="Q4">
+        <v>0.06</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>